--- a/TestData/Regression_TestData.xlsx
+++ b/TestData/Regression_TestData.xlsx
@@ -24,15 +24,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>testuser_1</t>
-  </si>
-  <si>
-    <t>testuser_2</t>
-  </si>
-  <si>
-    <t>testuser_3</t>
-  </si>
-  <si>
     <t>acbhasd!rh</t>
   </si>
   <si>
@@ -42,23 +33,32 @@
     <t>zhgafhH0!!1</t>
   </si>
   <si>
-    <t>testuser_4</t>
-  </si>
-  <si>
-    <t>testuser_5</t>
-  </si>
-  <si>
     <t>iaduiadh!hlda</t>
   </si>
   <si>
     <t>uieyraei#h123</t>
+  </si>
+  <si>
+    <t>testuser_1@gmail.com</t>
+  </si>
+  <si>
+    <t>testuser_2@gmail.com</t>
+  </si>
+  <si>
+    <t>testusser_3@gmail.com</t>
+  </si>
+  <si>
+    <t>testuser_4@gmail.com</t>
+  </si>
+  <si>
+    <t>testuser_5@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +73,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -89,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,28 +119,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -429,13 +431,14 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -447,48 +450,55 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.2" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/TestData/Regression_TestData.xlsx
+++ b/TestData/Regression_TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>UserName</t>
   </si>
@@ -52,12 +52,25 @@
   </si>
   <si>
     <t>testuser_5@gmail.com</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -428,65 +441,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="13.2" customHeight="1">
+    <row r="2" spans="1:3" ht="13.2" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
